--- a/biology/Botanique/Drosera_glanduligera/Drosera_glanduligera.xlsx
+++ b/biology/Botanique/Drosera_glanduligera/Drosera_glanduligera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Doséra glandueux, (Drosera glanduligera) est une plante carnivore annuelle du genre Drosera, originaire d’Australie[1],[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Doséra glandueux, (Drosera glanduligera) est une plante carnivore annuelle du genre Drosera, originaire d’Australie,.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drosera glanduligera est une espèce endémique d'Australie[3],[4]. On la retrouve en Tasmanie ainsi qu’au Sud-ouest et au Sud-Est de l’Australie, où elle peut être très abondante[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera glanduligera est une espèce endémique d'Australie,. On la retrouve en Tasmanie ainsi qu’au Sud-ouest et au Sud-Est de l’Australie, où elle peut être très abondante.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drosera Glanduligera pousse sous la forme d’une rosette au sol, atteignant jusqu’à 4 cm de diamètre, et capture notamment des arthropodes non volants[6]. Chaque feuille dédiée au piégeage développe de nombreux tentacules de colles ainsi qu’environs 12 à 18 tentacules de « pression ». Toutes ces tentacules sont très sensibles au touché. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera Glanduligera pousse sous la forme d’une rosette au sol, atteignant jusqu’à 4 cm de diamètre, et capture notamment des arthropodes non volants. Chaque feuille dédiée au piégeage développe de nombreux tentacules de colles ainsi qu’environs 12 à 18 tentacules de « pression ». Toutes ces tentacules sont très sensibles au touché. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Mécanisme de piégeage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drosera Glanduligera utilise une méthode de piégeage unique. La capture d’une proie se déroule en deux étapes. Premièrement, lorsqu’un tentacule de pression subit un stimulus mécanique, il effectue un mouvement de flexion vers le centre du piège, soulevant la proie puis la projetant dans la partie centrale collante de la feuille. Dans un second temps, les tentacules de colle attirent la proie dans la dépression de la feuille, profondément concave. Chaque tentacule de pression est à usage unique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drosera Glanduligera utilise une méthode de piégeage unique. La capture d’une proie se déroule en deux étapes. Premièrement, lorsqu’un tentacule de pression subit un stimulus mécanique, il effectue un mouvement de flexion vers le centre du piège, soulevant la proie puis la projetant dans la partie centrale collante de la feuille. Dans un second temps, les tentacules de colle attirent la proie dans la dépression de la feuille, profondément concave. Chaque tentacule de pression est à usage unique.
 </t>
         </is>
       </c>
